--- a/ONCHO/Impact Assessments/Nigeria/2023/nov/ng_oncho_stop_3_rdtov16_202311.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/nov/ng_oncho_stop_3_rdtov16_202311.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\nov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D75CC-5A88-4343-ADB3-B0BBA55932A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A744E6-E415-4D2E-9781-0F70533438AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="168">
   <si>
     <t>type</t>
   </si>
@@ -132,27 +132,6 @@
     <t>d_serial_number1</t>
   </si>
   <si>
-    <t>Please, enter the participant serial number</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>Must be a three-digit number. example: 001</t>
-  </si>
-  <si>
-    <t>d_serial_number2</t>
-  </si>
-  <si>
-    <t>Please, repeat the participant serial number</t>
-  </si>
-  <si>
-    <t>. = ${d_serial_number1}</t>
-  </si>
-  <si>
-    <t>The repeated code must be the same</t>
-  </si>
-  <si>
     <t>d_code_id</t>
   </si>
   <si>
@@ -324,161 +303,236 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>ng_oncho_stop_3_rdtov16_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 3. ELISA Form</t>
-  </si>
-  <si>
-    <t>OYO</t>
-  </si>
-  <si>
-    <t>AFIJIO</t>
-  </si>
-  <si>
-    <t>ATIBA</t>
-  </si>
-  <si>
-    <t>ATISBO</t>
-  </si>
-  <si>
-    <t>IBARAPA EAST</t>
-  </si>
-  <si>
-    <t>IDO</t>
-  </si>
-  <si>
-    <t>IREPO</t>
-  </si>
-  <si>
-    <t>ISEYIN</t>
-  </si>
-  <si>
-    <t>ITASEWAJU</t>
-  </si>
-  <si>
-    <t>IWAJOWA</t>
-  </si>
-  <si>
-    <t>LAGELU</t>
-  </si>
-  <si>
-    <t>OGO OLUWA</t>
-  </si>
-  <si>
-    <t>OLORUNSOGO</t>
-  </si>
-  <si>
-    <t>OLUYOLE</t>
-  </si>
-  <si>
-    <t>ORELOPE</t>
-  </si>
-  <si>
-    <t>ORI IRE</t>
-  </si>
-  <si>
-    <t>OYO EAST</t>
-  </si>
-  <si>
-    <t>SAKI EAST</t>
-  </si>
-  <si>
-    <t>SAKI WEST</t>
-  </si>
-  <si>
-    <t>IROKO</t>
-  </si>
-  <si>
-    <t>IGBOBURO</t>
-  </si>
-  <si>
-    <t>AGO ARE</t>
-  </si>
-  <si>
-    <t>OFIKI</t>
-  </si>
-  <si>
-    <t>AKERORO</t>
-  </si>
-  <si>
-    <t>OPO-OGEDE</t>
-  </si>
-  <si>
-    <t>OMI ADIO</t>
-  </si>
-  <si>
-    <t>KISI</t>
-  </si>
-  <si>
-    <t>APENPE</t>
-  </si>
-  <si>
-    <t>ODO OGUN</t>
-  </si>
-  <si>
-    <t>BALELAYO</t>
-  </si>
-  <si>
-    <t>IPAPO</t>
-  </si>
-  <si>
-    <t>OKAKA</t>
-  </si>
-  <si>
-    <t>OKE-AMU</t>
-  </si>
-  <si>
-    <t>AFANYE</t>
-  </si>
-  <si>
-    <t>ITASA</t>
-  </si>
-  <si>
-    <t>WASIMI</t>
-  </si>
-  <si>
-    <t>APATERE</t>
-  </si>
-  <si>
-    <t>IDI-ARABA</t>
-  </si>
-  <si>
-    <t>OTAMAKUN</t>
-  </si>
-  <si>
-    <t>IGBETTI</t>
-  </si>
-  <si>
-    <t>OLONDE</t>
-  </si>
-  <si>
-    <t>IGBOHO</t>
-  </si>
-  <si>
-    <t>ABUGAGA</t>
-  </si>
-  <si>
-    <t>ALADERE</t>
-  </si>
-  <si>
-    <t>ELEJA</t>
-  </si>
-  <si>
-    <t>SEPETERI</t>
-  </si>
-  <si>
-    <t>BUDI IGE</t>
-  </si>
-  <si>
-    <t>IGA IYERE</t>
+    <t>ng_oncho_stop_3_rdtov16_202311</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - Tabata - 3. ELISA Form</t>
+  </si>
+  <si>
+    <t>TARABA</t>
+  </si>
+  <si>
+    <t>ARDOKOLA</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>DONGA</t>
+  </si>
+  <si>
+    <t>GASHAKA</t>
+  </si>
+  <si>
+    <t>GASSOL</t>
+  </si>
+  <si>
+    <t>IBI</t>
+  </si>
+  <si>
+    <t>JALINGO/K/LAMIDO</t>
+  </si>
+  <si>
+    <t>KARIM LAMIDO</t>
+  </si>
+  <si>
+    <t>KURMI</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>SARDUANA</t>
+  </si>
+  <si>
+    <t>TAKUM</t>
+  </si>
+  <si>
+    <t>WUKARI</t>
+  </si>
+  <si>
+    <t>YORRO</t>
+  </si>
+  <si>
+    <t>NAMNAI</t>
+  </si>
+  <si>
+    <t>SIBRE</t>
+  </si>
+  <si>
+    <t>DAKKA</t>
+  </si>
+  <si>
+    <t>GAZABU</t>
+  </si>
+  <si>
+    <t>MAYO KAM</t>
+  </si>
+  <si>
+    <t>PAMANGA</t>
+  </si>
+  <si>
+    <t>BIBINU</t>
+  </si>
+  <si>
+    <t>SANSO~0</t>
+  </si>
+  <si>
+    <t>SUNTAI DONGA</t>
+  </si>
+  <si>
+    <t>TISA</t>
+  </si>
+  <si>
+    <t>FILINGA</t>
+  </si>
+  <si>
+    <t>JAURO JALLO</t>
+  </si>
+  <si>
+    <t>MAI IDANU</t>
+  </si>
+  <si>
+    <t>NYABAR</t>
+  </si>
+  <si>
+    <t>SERTI</t>
+  </si>
+  <si>
+    <t>GARIN KUKA</t>
+  </si>
+  <si>
+    <t>GARIN YUSUF</t>
+  </si>
+  <si>
+    <t>DAMPAR</t>
+  </si>
+  <si>
+    <t>K/WANZA</t>
+  </si>
+  <si>
+    <t>KURMA</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>TAPGAR</t>
+  </si>
+  <si>
+    <t>KODEI~0</t>
+  </si>
+  <si>
+    <t>WANZAMIN GOMU</t>
+  </si>
+  <si>
+    <t>G/DUTSE</t>
+  </si>
+  <si>
+    <t>GOMU</t>
+  </si>
+  <si>
+    <t>WONG</t>
+  </si>
+  <si>
+    <t>SHUWAKA</t>
+  </si>
+  <si>
+    <t>JAKAN</t>
+  </si>
+  <si>
+    <t>KATIBU</t>
+  </si>
+  <si>
+    <t>ANTERE</t>
+  </si>
+  <si>
+    <t>GONTA</t>
+  </si>
+  <si>
+    <t>MBASO</t>
+  </si>
+  <si>
+    <t>NDUMYAJI</t>
+  </si>
+  <si>
+    <t>CHENCHENJI</t>
+  </si>
+  <si>
+    <t>FIKYU</t>
+  </si>
+  <si>
+    <t>GALUMJE</t>
+  </si>
+  <si>
+    <t>LUMBU</t>
+  </si>
+  <si>
+    <t>FIYAYI</t>
+  </si>
+  <si>
+    <t>RITI~0</t>
+  </si>
+  <si>
+    <t>DANDIKULU</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>d_add_result</t>
+  </si>
+  <si>
+    <t>Do you want to add another result</t>
+  </si>
+  <si>
+    <t>Please, enter the serial number</t>
+  </si>
+  <si>
+    <t>join(' ', ${d_serial_number1})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${d_serial_number1}))</t>
+  </si>
+  <si>
+    <t>Must be a three-digit number. example: 001 and the code must be used once in the village</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{3}$') and not(selected(${C3}, ${d_serial_number1}))</t>
+  </si>
+  <si>
+    <t>d_t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,8 +570,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +597,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -554,11 +627,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -605,6 +693,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,13 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -909,12 +1014,12 @@
     <col min="8" max="8" width="20.375" style="10" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="10" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="36.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="36.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="10" customWidth="1"/>
     <col min="13" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="37.5">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="37.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -946,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="31.5">
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="31.5">
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
@@ -980,7 +1085,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1">
+    <row r="3" spans="1:14" s="9" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1107,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1">
+    <row r="4" spans="1:14" s="9" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1021,12 +1126,12 @@
       <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1">
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -1045,12 +1150,12 @@
       <c r="J5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
@@ -1069,226 +1174,257 @@
       <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="31.5">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="47.25">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="47.25">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="I9" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>93</v>
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="78.75">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>97</v>
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="47.25">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
+      <c r="L13" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="16"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="14"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1">
+      <c r="A19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,11 +1434,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD103"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1314,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1323,244 +1459,244 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1568,1077 +1704,1385 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
         <v>102</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
         <v>140</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>140</v>
       </c>
-      <c r="E64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
         <v>141</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>141</v>
       </c>
-      <c r="E65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="E73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C74" t="s">
         <v>142</v>
       </c>
-      <c r="E66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="E68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C77" t="s">
         <v>145</v>
       </c>
-      <c r="E69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
         <v>146</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
         <v>146</v>
       </c>
-      <c r="E70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="E78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s">
         <v>147</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C79" t="s">
         <v>147</v>
       </c>
-      <c r="E71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
         <v>148</v>
       </c>
-      <c r="E72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75">
-        <v>101</v>
-      </c>
-      <c r="C75">
-        <v>101</v>
-      </c>
-      <c r="F75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76">
-        <v>102</v>
-      </c>
-      <c r="C76">
-        <v>102</v>
-      </c>
-      <c r="F76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>103</v>
-      </c>
-      <c r="C77">
-        <v>103</v>
-      </c>
-      <c r="F77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78">
-        <v>104</v>
-      </c>
-      <c r="C78">
-        <v>104</v>
-      </c>
-      <c r="F78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>105</v>
-      </c>
-      <c r="C79">
-        <v>105</v>
-      </c>
-      <c r="F79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80">
-        <v>106</v>
-      </c>
-      <c r="C80">
-        <v>106</v>
-      </c>
-      <c r="F80" t="s">
-        <v>126</v>
+      <c r="E80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81">
-        <v>107</v>
-      </c>
-      <c r="C81">
-        <v>107</v>
-      </c>
-      <c r="F81" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>101</v>
+      </c>
+      <c r="F84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>102</v>
+      </c>
+      <c r="C85">
+        <v>102</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86">
+        <v>103</v>
+      </c>
+      <c r="C86">
+        <v>103</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>104</v>
+      </c>
+      <c r="C87">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>106</v>
+      </c>
+      <c r="C89">
+        <v>106</v>
+      </c>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>107</v>
+      </c>
+      <c r="C90">
+        <v>107</v>
+      </c>
+      <c r="F90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91">
         <v>108</v>
       </c>
-      <c r="C82">
+      <c r="C91">
         <v>108</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92">
+        <v>109</v>
+      </c>
+      <c r="C92">
+        <v>109</v>
+      </c>
+      <c r="F92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <v>110</v>
+      </c>
+      <c r="F93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94">
+        <v>111</v>
+      </c>
+      <c r="C94">
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95">
+        <v>112</v>
+      </c>
+      <c r="C95">
+        <v>112</v>
+      </c>
+      <c r="F95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96">
+        <v>113</v>
+      </c>
+      <c r="C96">
+        <v>113</v>
+      </c>
+      <c r="F96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97">
+        <v>114</v>
+      </c>
+      <c r="C97">
+        <v>114</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98">
+        <v>115</v>
+      </c>
+      <c r="C98">
+        <v>115</v>
+      </c>
+      <c r="F98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>116</v>
+      </c>
+      <c r="C99">
+        <v>116</v>
+      </c>
+      <c r="F99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>117</v>
+      </c>
+      <c r="F100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>118</v>
+      </c>
+      <c r="C101">
+        <v>118</v>
+      </c>
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102">
+        <v>119</v>
+      </c>
+      <c r="C102">
+        <v>119</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>120</v>
+      </c>
+      <c r="C103">
+        <v>120</v>
+      </c>
+      <c r="F103" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>109</v>
-      </c>
-      <c r="C83">
-        <v>109</v>
-      </c>
-      <c r="F83" t="s">
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>121</v>
+      </c>
+      <c r="C104">
+        <v>121</v>
+      </c>
+      <c r="F104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>110</v>
-      </c>
-      <c r="C84">
-        <v>110</v>
-      </c>
-      <c r="F84" t="s">
+    <row r="105" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>122</v>
+      </c>
+      <c r="C105">
+        <v>122</v>
+      </c>
+      <c r="F105" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>111</v>
-      </c>
-      <c r="C85">
-        <v>111</v>
-      </c>
-      <c r="F85" t="s">
+    <row r="106" spans="1:6">
+      <c r="A106" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>123</v>
+      </c>
+      <c r="C106">
+        <v>123</v>
+      </c>
+      <c r="F106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107">
+        <v>124</v>
+      </c>
+      <c r="C107">
+        <v>124</v>
+      </c>
+      <c r="F107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108">
+        <v>125</v>
+      </c>
+      <c r="C108">
+        <v>125</v>
+      </c>
+      <c r="F108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>126</v>
+      </c>
+      <c r="C109">
+        <v>126</v>
+      </c>
+      <c r="F109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>112</v>
-      </c>
-      <c r="C86">
-        <v>112</v>
-      </c>
-      <c r="F86" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110">
+        <v>127</v>
+      </c>
+      <c r="C110">
+        <v>127</v>
+      </c>
+      <c r="F110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>128</v>
+      </c>
+      <c r="F111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112">
+        <v>129</v>
+      </c>
+      <c r="C112">
+        <v>129</v>
+      </c>
+      <c r="F112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113">
+        <v>130</v>
+      </c>
+      <c r="C113">
+        <v>130</v>
+      </c>
+      <c r="F113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87">
-        <v>113</v>
-      </c>
-      <c r="C87">
-        <v>113</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C114">
+        <v>131</v>
+      </c>
+      <c r="F114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115">
         <v>132</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>114</v>
-      </c>
-      <c r="C88">
-        <v>114</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="C115">
+        <v>132</v>
+      </c>
+      <c r="F115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116">
         <v>133</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>115</v>
-      </c>
-      <c r="C89">
-        <v>115</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="C116">
+        <v>133</v>
+      </c>
+      <c r="F116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117">
+        <v>134</v>
+      </c>
+      <c r="C117">
+        <v>134</v>
+      </c>
+      <c r="F117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118">
         <v>135</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>116</v>
-      </c>
-      <c r="C90">
-        <v>116</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C118">
+        <v>135</v>
+      </c>
+      <c r="F118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119">
         <v>136</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91">
-        <v>117</v>
-      </c>
-      <c r="C91">
-        <v>117</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C119">
+        <v>136</v>
+      </c>
+      <c r="F119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120">
         <v>137</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92">
-        <v>118</v>
-      </c>
-      <c r="C92">
-        <v>118</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C120">
+        <v>137</v>
+      </c>
+      <c r="F120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121">
         <v>138</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93">
-        <v>119</v>
-      </c>
-      <c r="C93">
-        <v>119</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="C121">
+        <v>138</v>
+      </c>
+      <c r="F121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122">
         <v>139</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94">
-        <v>120</v>
-      </c>
-      <c r="C94">
-        <v>120</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="C122">
+        <v>139</v>
+      </c>
+      <c r="F122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123">
         <v>140</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>121</v>
-      </c>
-      <c r="C95">
-        <v>121</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="C123">
+        <v>140</v>
+      </c>
+      <c r="F123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124">
         <v>141</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96">
-        <v>122</v>
-      </c>
-      <c r="C96">
-        <v>122</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="C124">
+        <v>141</v>
+      </c>
+      <c r="F124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125">
         <v>142</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97">
-        <v>123</v>
-      </c>
-      <c r="C97">
-        <v>123</v>
-      </c>
-      <c r="F97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98">
-        <v>124</v>
-      </c>
-      <c r="C98">
-        <v>124</v>
-      </c>
-      <c r="F98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99">
-        <v>125</v>
-      </c>
-      <c r="C99">
-        <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100">
-        <v>126</v>
-      </c>
-      <c r="C100">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101">
-        <v>127</v>
-      </c>
-      <c r="C101">
-        <v>127</v>
-      </c>
-      <c r="F101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102">
-        <v>128</v>
-      </c>
-      <c r="C102">
-        <v>128</v>
-      </c>
-      <c r="F102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103">
-        <v>129</v>
-      </c>
-      <c r="C103">
-        <v>129</v>
-      </c>
-      <c r="F103" t="s">
-        <v>149</v>
+      <c r="C125">
+        <v>142</v>
+      </c>
+      <c r="F125" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2665,24 +3109,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
